--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H2">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>56.54820649200746</v>
+        <v>63.66549729545778</v>
       </c>
       <c r="R2">
-        <v>56.54820649200746</v>
+        <v>572.98947565912</v>
       </c>
       <c r="S2">
-        <v>0.01119501814950373</v>
+        <v>0.01202733839381197</v>
       </c>
       <c r="T2">
-        <v>0.01119501814950373</v>
+        <v>0.01202733839381198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H3">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>107.0111940674258</v>
+        <v>109.2005166383047</v>
       </c>
       <c r="R3">
-        <v>107.0111940674258</v>
+        <v>982.8046497447421</v>
       </c>
       <c r="S3">
-        <v>0.02118532724736764</v>
+        <v>0.02062956581164864</v>
       </c>
       <c r="T3">
-        <v>0.02118532724736764</v>
+        <v>0.02062956581164865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H4">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>1.710309753790302</v>
+        <v>0.8062450522977777</v>
       </c>
       <c r="R4">
-        <v>1.710309753790302</v>
+        <v>7.256205470679999</v>
       </c>
       <c r="S4">
-        <v>0.0003385951548730714</v>
+        <v>0.0001523114164540397</v>
       </c>
       <c r="T4">
-        <v>0.0003385951548730714</v>
+        <v>0.0001523114164540397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H5">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>477.1319362026028</v>
+        <v>1.745314579162</v>
       </c>
       <c r="R5">
-        <v>477.1319362026028</v>
+        <v>15.707831212458</v>
       </c>
       <c r="S5">
-        <v>0.09445924135986462</v>
+        <v>0.0003297153079605733</v>
       </c>
       <c r="T5">
-        <v>0.09445924135986462</v>
+        <v>0.0003297153079605734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.0370462263</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H6">
-        <v>23.0370462263</v>
+        <v>49.167946</v>
       </c>
       <c r="I6">
-        <v>0.1812294705850759</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J6">
-        <v>0.1812294705850759</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>80.58144385335476</v>
+        <v>498.2265325748373</v>
       </c>
       <c r="R6">
-        <v>80.58144385335476</v>
+        <v>4484.038793173537</v>
       </c>
       <c r="S6">
-        <v>0.01595295027754818</v>
+        <v>0.094122238239089</v>
       </c>
       <c r="T6">
-        <v>0.01595295027754818</v>
+        <v>0.09412223823908904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>152.4914238905793</v>
+        <v>89.62102244992002</v>
       </c>
       <c r="R7">
-        <v>152.4914238905793</v>
+        <v>806.5892020492801</v>
       </c>
       <c r="S7">
-        <v>0.03018918483895666</v>
+        <v>0.01693071459415917</v>
       </c>
       <c r="T7">
-        <v>0.03018918483895666</v>
+        <v>0.01693071459415917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>2.437198948411876</v>
+        <v>153.720026842272</v>
       </c>
       <c r="R8">
-        <v>2.437198948411876</v>
+        <v>1383.480241580448</v>
       </c>
       <c r="S8">
-        <v>0.0004824995902439232</v>
+        <v>0.02903994878352692</v>
       </c>
       <c r="T8">
-        <v>0.0004824995902439232</v>
+        <v>0.02903994878352693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.5139884018581</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N9">
-        <v>29.5139884018581</v>
+        <v>0.14758</v>
       </c>
       <c r="O9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q9">
-        <v>679.9151151360871</v>
+        <v>1.13493978688</v>
       </c>
       <c r="R9">
-        <v>679.9151151360871</v>
+        <v>10.21445808192</v>
       </c>
       <c r="S9">
-        <v>0.1346048358783271</v>
+        <v>0.0002144066323719816</v>
       </c>
       <c r="T9">
-        <v>0.1346048358783271</v>
+        <v>0.0002144066323719816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2026539397823</v>
+        <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>37.2026539397823</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J10">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.49790693918736</v>
+        <v>0.106491</v>
       </c>
       <c r="N10">
-        <v>3.49790693918736</v>
+        <v>0.319473</v>
       </c>
       <c r="O10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q10">
-        <v>130.1314213721505</v>
+        <v>2.456854712928001</v>
       </c>
       <c r="R10">
-        <v>130.1314213721505</v>
+        <v>22.111692416352</v>
       </c>
       <c r="S10">
-        <v>0.02576250803441221</v>
+        <v>0.0004641355879101104</v>
       </c>
       <c r="T10">
-        <v>0.02576250803441221</v>
+        <v>0.0004641355879101104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.2026539397823</v>
+        <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>37.2026539397823</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J11">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.61940000434991</v>
+        <v>30.399472</v>
       </c>
       <c r="N11">
-        <v>6.61940000434991</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q11">
-        <v>246.2592476508232</v>
+        <v>701.3464617077761</v>
       </c>
       <c r="R11">
-        <v>246.2592476508232</v>
+        <v>6312.118155369985</v>
       </c>
       <c r="S11">
-        <v>0.04875268232112291</v>
+        <v>0.1324945470403784</v>
       </c>
       <c r="T11">
-        <v>0.04875268232112291</v>
+        <v>0.1324945470403784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H12">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.105794767457187</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N12">
-        <v>0.105794767457187</v>
+        <v>11.65372</v>
       </c>
       <c r="O12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q12">
-        <v>3.93584612234947</v>
+        <v>144.8672923210933</v>
       </c>
       <c r="R12">
-        <v>3.93584612234947</v>
+        <v>1303.80563088984</v>
       </c>
       <c r="S12">
-        <v>0.0007791912689500404</v>
+        <v>0.02736753847778988</v>
       </c>
       <c r="T12">
-        <v>0.0007791912689500404</v>
+        <v>0.02736753847778988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H13">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.5139884018581</v>
+        <v>6.662909</v>
       </c>
       <c r="N13">
-        <v>29.5139884018581</v>
+        <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q13">
-        <v>1097.998696897075</v>
+        <v>248.479692101366</v>
       </c>
       <c r="R13">
-        <v>1097.998696897075</v>
+        <v>2236.317228912294</v>
       </c>
       <c r="S13">
-        <v>0.2173740972957574</v>
+        <v>0.0469414277410593</v>
       </c>
       <c r="T13">
-        <v>0.2173740972957574</v>
+        <v>0.04694142774105931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H14">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I14">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J14">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.49790693918736</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N14">
-        <v>3.49790693918736</v>
+        <v>0.14758</v>
       </c>
       <c r="O14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q14">
-        <v>150.8470984457892</v>
+        <v>1.834565700973333</v>
       </c>
       <c r="R14">
-        <v>150.8470984457892</v>
+        <v>16.51109130876</v>
       </c>
       <c r="S14">
-        <v>0.02986365279576591</v>
+        <v>0.0003465761429442471</v>
       </c>
       <c r="T14">
-        <v>0.02986365279576591</v>
+        <v>0.0003465761429442471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H15">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I15">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J15">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.61940000434991</v>
+        <v>0.106491</v>
       </c>
       <c r="N15">
-        <v>6.61940000434991</v>
+        <v>0.319473</v>
       </c>
       <c r="O15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q15">
-        <v>285.4613634576013</v>
+        <v>3.971366094234</v>
       </c>
       <c r="R15">
-        <v>285.4613634576013</v>
+        <v>35.742294848106</v>
       </c>
       <c r="S15">
-        <v>0.05651364283925813</v>
+        <v>0.0007502488149805357</v>
       </c>
       <c r="T15">
-        <v>0.05651364283925813</v>
+        <v>0.0007502488149805358</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H16">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I16">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J16">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.105794767457187</v>
+        <v>30.399472</v>
       </c>
       <c r="N16">
-        <v>0.105794767457187</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q16">
-        <v>4.562395163483466</v>
+        <v>1133.686718909728</v>
       </c>
       <c r="R16">
-        <v>4.562395163483466</v>
+        <v>10203.18047018755</v>
       </c>
       <c r="S16">
-        <v>0.0009032310629979849</v>
+        <v>0.2141699096077037</v>
       </c>
       <c r="T16">
-        <v>0.0009032310629979849</v>
+        <v>0.2141699096077037</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H17">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.5139884018581</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N17">
-        <v>29.5139884018581</v>
+        <v>11.65372</v>
       </c>
       <c r="O17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q17">
-        <v>1272.789582851878</v>
+        <v>170.2664287421644</v>
       </c>
       <c r="R17">
-        <v>1272.789582851878</v>
+        <v>1532.39785867948</v>
       </c>
       <c r="S17">
-        <v>0.2519779735638478</v>
+        <v>0.03216580475424935</v>
       </c>
       <c r="T17">
-        <v>0.2519779735638478</v>
+        <v>0.03216580475424935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H18">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I18">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J18">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.49790693918736</v>
+        <v>6.662909</v>
       </c>
       <c r="N18">
-        <v>3.49790693918736</v>
+        <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q18">
-        <v>26.52946847906679</v>
+        <v>292.0448716282937</v>
       </c>
       <c r="R18">
-        <v>26.52946847906679</v>
+        <v>2628.403844654643</v>
       </c>
       <c r="S18">
-        <v>0.005252118494011257</v>
+        <v>0.05517152376820383</v>
       </c>
       <c r="T18">
-        <v>0.005252118494011257</v>
+        <v>0.05517152376820383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H19">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I19">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J19">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>6.61940000434991</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N19">
-        <v>6.61940000434991</v>
+        <v>0.14758</v>
       </c>
       <c r="O19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q19">
-        <v>50.20406969618618</v>
+        <v>2.156214458024444</v>
       </c>
       <c r="R19">
-        <v>50.20406969618618</v>
+        <v>19.40593012222</v>
       </c>
       <c r="S19">
-        <v>0.009939050348258045</v>
+        <v>0.0004073402712294545</v>
       </c>
       <c r="T19">
-        <v>0.009939050348258045</v>
+        <v>0.0004073402712294545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H20">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I20">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J20">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.105794767457187</v>
+        <v>0.106491</v>
       </c>
       <c r="N20">
-        <v>0.105794767457187</v>
+        <v>0.319473</v>
       </c>
       <c r="O20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q20">
-        <v>0.8023881130347326</v>
+        <v>4.667653486572999</v>
       </c>
       <c r="R20">
-        <v>0.8023881130347326</v>
+        <v>42.008881379157</v>
       </c>
       <c r="S20">
-        <v>0.0001588511828335264</v>
+        <v>0.0008817876302377526</v>
       </c>
       <c r="T20">
-        <v>0.0001588511828335264</v>
+        <v>0.0008817876302377528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H21">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I21">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J21">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.5139884018581</v>
+        <v>30.399472</v>
       </c>
       <c r="N21">
-        <v>29.5139884018581</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q21">
-        <v>223.8454134461744</v>
+        <v>1332.452521534949</v>
       </c>
       <c r="R21">
-        <v>223.8454134461744</v>
+        <v>11992.07269381454</v>
       </c>
       <c r="S21">
-        <v>0.04431534829609993</v>
+        <v>0.2517196605850158</v>
       </c>
       <c r="T21">
-        <v>0.04431534829609993</v>
+        <v>0.2517196605850158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H22">
+        <v>24.600461</v>
+      </c>
+      <c r="I22">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J22">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.65372</v>
+      </c>
+      <c r="O22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q22">
+        <v>31.85409826276889</v>
+      </c>
+      <c r="R22">
+        <v>286.68688436492</v>
+      </c>
+      <c r="S22">
+        <v>0.006017702449697088</v>
+      </c>
+      <c r="T22">
+        <v>0.006017702449697088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H23">
+        <v>24.600461</v>
+      </c>
+      <c r="I23">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J23">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.662909</v>
+      </c>
+      <c r="N23">
+        <v>19.988727</v>
+      </c>
+      <c r="O23">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P23">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q23">
+        <v>54.63687766701634</v>
+      </c>
+      <c r="R23">
+        <v>491.731899003147</v>
+      </c>
+      <c r="S23">
+        <v>0.01032170083322976</v>
+      </c>
+      <c r="T23">
+        <v>0.01032170083322976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H24">
+        <v>24.600461</v>
+      </c>
+      <c r="I24">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J24">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.14758</v>
+      </c>
+      <c r="O24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q24">
+        <v>0.4033928927088889</v>
+      </c>
+      <c r="R24">
+        <v>3.630536034379999</v>
+      </c>
+      <c r="S24">
+        <v>7.620678440243082E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.620678440243082E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H25">
+        <v>24.600461</v>
+      </c>
+      <c r="I25">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J25">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.106491</v>
+      </c>
+      <c r="N25">
+        <v>0.319473</v>
+      </c>
+      <c r="O25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q25">
+        <v>0.8732425641170001</v>
+      </c>
+      <c r="R25">
+        <v>7.859183077053</v>
+      </c>
+      <c r="S25">
+        <v>0.000164968220852404</v>
+      </c>
+      <c r="T25">
+        <v>0.000164968220852404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H26">
+        <v>24.600461</v>
+      </c>
+      <c r="I26">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J26">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.399472</v>
+      </c>
+      <c r="N26">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O26">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P26">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q26">
+        <v>249.2803417855307</v>
+      </c>
+      <c r="R26">
+        <v>2243.523076069776</v>
+      </c>
+      <c r="S26">
+        <v>0.04709268211109363</v>
+      </c>
+      <c r="T26">
+        <v>0.04709268211109364</v>
       </c>
     </row>
   </sheetData>
